--- a/Excel/DefendConfig.xlsx
+++ b/Excel/DefendConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -30,11 +30,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>Layer</t>
   </si>
   <si>
@@ -96,6 +99,9 @@
   </si>
   <si>
     <t>double</t>
+  </si>
+  <si>
+    <t>噩梦沙城</t>
   </si>
 </sst>
 </file>
@@ -1069,47 +1075,46 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="8" style="2" customWidth="1"/>
-    <col min="3" max="4" width="9.875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="11.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="16.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="17.125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="20.625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="20.25" style="3" customWidth="1"/>
-    <col min="13" max="13" width="8.375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="8.875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="6.375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="8" style="2" customWidth="1"/>
-    <col min="17" max="17" width="5.875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="9.75" style="2" customWidth="1"/>
-    <col min="19" max="19" width="12.875" style="2" customWidth="1"/>
-    <col min="20" max="20" width="13.375" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="2"/>
+    <col min="3" max="5" width="9.875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="11.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.5" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="17.125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="20.625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="20.25" style="3" customWidth="1"/>
+    <col min="14" max="14" width="8.375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="6.375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="8" style="2" customWidth="1"/>
+    <col min="18" max="18" width="5.875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="9.75" style="2" customWidth="1"/>
+    <col min="20" max="20" width="12.875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="13.375" style="2" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:20">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
-      <c r="M1" s="2"/>
+      <c r="M1" s="4"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -1117,17 +1122,17 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2"/>
+      <c r="M2" s="4"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -1135,8 +1140,9 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="5" t="s">
@@ -1151,7 +1157,7 @@
       <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="6" t="s">
@@ -1169,7 +1175,7 @@
       <c r="L3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="5" t="s">
@@ -1187,18 +1193,21 @@
       <c r="R3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="S3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="T3" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U3" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>1</v>
@@ -1209,7 +1218,7 @@
       <c r="F4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="6" t="s">
@@ -1227,7 +1236,7 @@
       <c r="L4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="N4" s="5" t="s">
@@ -1245,348 +1254,366 @@
       <c r="R4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="T4" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U4" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="G5" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="H5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="O5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="P5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="Q5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="R5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>21</v>
+      <c r="S5" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="3:20">
+        <v>22</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="3:21">
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1">
         <v>3</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>25</v>
       </c>
-      <c r="G6" s="7">
+      <c r="H6" s="7">
         <v>70000000000000</v>
       </c>
-      <c r="H6" s="7">
+      <c r="I6" s="7">
         <v>280000000000000</v>
       </c>
-      <c r="I6" s="7">
+      <c r="J6" s="7">
         <v>350000000000000</v>
-      </c>
-      <c r="J6" s="7">
-        <v>1400000000000000</v>
       </c>
       <c r="K6" s="7">
         <v>1400000000000000</v>
       </c>
       <c r="L6" s="7">
+        <v>1400000000000000</v>
+      </c>
+      <c r="M6" s="7">
         <v>5600000000000000</v>
       </c>
-      <c r="M6" s="8">
+      <c r="N6" s="8">
         <v>250</v>
       </c>
-      <c r="N6" s="8">
+      <c r="O6" s="8">
         <v>150</v>
-      </c>
-      <c r="O6" s="8">
-        <v>100</v>
       </c>
       <c r="P6" s="8">
         <v>100</v>
       </c>
       <c r="Q6" s="8">
+        <v>100</v>
+      </c>
+      <c r="R6" s="8">
         <v>0</v>
       </c>
-      <c r="R6" s="8">
+      <c r="S6" s="8">
         <v>80</v>
-      </c>
-      <c r="S6" s="2">
-        <v>10000000000</v>
       </c>
       <c r="T6" s="2">
         <v>10000000000</v>
       </c>
-    </row>
-    <row r="7" customHeight="1" spans="3:20">
+      <c r="U6" s="2">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="3:21">
       <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1">
         <v>3</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>26</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>50</v>
       </c>
-      <c r="G7" s="7">
+      <c r="H7" s="7">
         <v>700000000000000</v>
       </c>
-      <c r="H7" s="7">
+      <c r="I7" s="7">
         <v>2800000000000000</v>
       </c>
-      <c r="I7" s="7">
+      <c r="J7" s="7">
         <v>3500000000000000</v>
-      </c>
-      <c r="J7" s="7">
-        <v>1.4e+16</v>
       </c>
       <c r="K7" s="7">
         <v>1.4e+16</v>
       </c>
       <c r="L7" s="7">
+        <v>1.4e+16</v>
+      </c>
+      <c r="M7" s="7">
         <v>5.6e+16</v>
       </c>
-      <c r="M7" s="8">
+      <c r="N7" s="8">
         <v>300</v>
       </c>
-      <c r="N7" s="8">
+      <c r="O7" s="8">
         <v>200</v>
-      </c>
-      <c r="O7" s="8">
-        <v>125</v>
       </c>
       <c r="P7" s="8">
         <v>125</v>
       </c>
       <c r="Q7" s="8">
+        <v>125</v>
+      </c>
+      <c r="R7" s="8">
         <v>0</v>
       </c>
-      <c r="R7" s="8">
+      <c r="S7" s="8">
         <v>80</v>
-      </c>
-      <c r="S7" s="2">
-        <v>20000000000</v>
       </c>
       <c r="T7" s="2">
         <v>20000000000</v>
       </c>
-    </row>
-    <row r="8" customHeight="1" spans="3:20">
+      <c r="U7" s="2">
+        <v>20000000000</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="3:21">
       <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1">
         <v>3</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>51</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>75</v>
       </c>
-      <c r="G8" s="7">
+      <c r="H8" s="7">
         <v>7000000000000000</v>
       </c>
-      <c r="H8" s="7">
+      <c r="I8" s="7">
         <v>2.8e+16</v>
       </c>
-      <c r="I8" s="7">
+      <c r="J8" s="7">
         <v>3.5e+16</v>
-      </c>
-      <c r="J8" s="7">
-        <v>1.4e+17</v>
       </c>
       <c r="K8" s="7">
         <v>1.4e+17</v>
       </c>
       <c r="L8" s="7">
+        <v>1.4e+17</v>
+      </c>
+      <c r="M8" s="7">
         <v>5.6e+17</v>
       </c>
-      <c r="M8" s="8">
+      <c r="N8" s="8">
         <v>350</v>
       </c>
-      <c r="N8" s="8">
+      <c r="O8" s="8">
         <v>250</v>
-      </c>
-      <c r="O8" s="8">
-        <v>150</v>
       </c>
       <c r="P8" s="8">
         <v>150</v>
       </c>
       <c r="Q8" s="8">
+        <v>150</v>
+      </c>
+      <c r="R8" s="8">
         <v>0</v>
       </c>
-      <c r="R8" s="8">
+      <c r="S8" s="8">
         <v>80</v>
-      </c>
-      <c r="S8" s="2">
-        <v>30000000000</v>
       </c>
       <c r="T8" s="2">
         <v>30000000000</v>
       </c>
-    </row>
-    <row r="9" customHeight="1" spans="3:20">
+      <c r="U8" s="2">
+        <v>30000000000</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="3:21">
       <c r="C9" s="1">
         <v>4</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1">
         <v>3</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>76</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>100</v>
       </c>
-      <c r="G9" s="7">
+      <c r="H9" s="7">
         <v>7e+16</v>
       </c>
-      <c r="H9" s="7">
+      <c r="I9" s="7">
         <v>2.8e+17</v>
       </c>
-      <c r="I9" s="7">
+      <c r="J9" s="7">
         <v>3.5e+17</v>
-      </c>
-      <c r="J9" s="7">
-        <v>1.4e+18</v>
       </c>
       <c r="K9" s="7">
         <v>1.4e+18</v>
       </c>
       <c r="L9" s="7">
+        <v>1.4e+18</v>
+      </c>
+      <c r="M9" s="7">
         <v>5.6e+18</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <v>400</v>
       </c>
-      <c r="N9" s="2">
+      <c r="O9" s="2">
         <v>300</v>
-      </c>
-      <c r="O9" s="2">
-        <v>175</v>
       </c>
       <c r="P9" s="2">
         <v>175</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="2">
+        <v>175</v>
+      </c>
+      <c r="R9" s="8">
         <v>0</v>
       </c>
-      <c r="R9" s="8">
+      <c r="S9" s="8">
         <v>80</v>
-      </c>
-      <c r="S9" s="2">
-        <v>40000000000</v>
       </c>
       <c r="T9" s="2">
         <v>40000000000</v>
       </c>
-    </row>
-    <row r="10" customHeight="1" spans="7:11">
-      <c r="G10" s="7"/>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="16" customHeight="1" spans="7:7">
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" customHeight="1" spans="7:7">
-      <c r="G17" s="7"/>
-    </row>
-    <row r="20" customHeight="1" spans="9:10">
-      <c r="I20" s="7"/>
+      <c r="U9" s="2">
+        <v>40000000000</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="8:12">
+      <c r="H10" s="7"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="16" customHeight="1" spans="8:8">
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" customHeight="1" spans="8:8">
+      <c r="H17" s="7"/>
+    </row>
+    <row r="20" customHeight="1" spans="10:11">
       <c r="J20" s="7"/>
-    </row>
-    <row r="21" customHeight="1" spans="9:10">
-      <c r="I21" s="7"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" customHeight="1" spans="10:11">
       <c r="J21" s="7"/>
-    </row>
-    <row r="22" customHeight="1" spans="9:10">
-      <c r="I22" s="7"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" customHeight="1" spans="10:11">
       <c r="J22" s="7"/>
-    </row>
-    <row r="23" customHeight="1" spans="9:10">
-      <c r="I23" s="7"/>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" customHeight="1" spans="10:11">
       <c r="J23" s="7"/>
-    </row>
-    <row r="24" customHeight="1" spans="9:10">
-      <c r="I24" s="7"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" customHeight="1" spans="10:11">
       <c r="J24" s="7"/>
-    </row>
-    <row r="25" customHeight="1" spans="9:10">
-      <c r="I25" s="7"/>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" customHeight="1" spans="10:11">
       <c r="J25" s="7"/>
-    </row>
-    <row r="26" customHeight="1" spans="9:10">
-      <c r="I26" s="7"/>
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" customHeight="1" spans="10:11">
       <c r="J26" s="7"/>
-    </row>
-    <row r="27" customHeight="1" spans="9:10">
-      <c r="I27" s="7"/>
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" customHeight="1" spans="10:11">
       <c r="J27" s="7"/>
-    </row>
-    <row r="28" customHeight="1" spans="9:10">
-      <c r="I28" s="7"/>
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" customHeight="1" spans="10:11">
       <c r="J28" s="7"/>
-    </row>
-    <row r="29" customHeight="1" spans="9:10">
-      <c r="I29" s="7"/>
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" customHeight="1" spans="10:11">
       <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="E3 F3 G3 H3 I3 J3 K3 L3 E4 F4 G4 H4 I4 J4 K4 L4 C5 D5 E5 F5 G5 H5 I5 J5 K5 L5 M5 N5 O5 P5 Q5 R5 C3:C4 D3:D4 M3:M4 N3:N4 O3:O4 P3:P4 Q3:Q4 R3:R4" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 F3 G3 H3 I3 J3 K3 L3 M3 D4 F4 G4 H4 I4 J4 K4 L4 M4 C5 D5 E5 F5 G5 H5 I5 J5 K5 L5 M5 N5 O5 P5 Q5 R5 S5 C3:C4 E3:E4 N3:N4 O3:O4 P3:P4 Q3:Q4 R3:R4 S3:S4" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/DefendConfig.xlsx
+++ b/Excel/DefendConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -102,6 +102,18 @@
   </si>
   <si>
     <t>噩梦沙城</t>
+  </si>
+  <si>
+    <t>1000000000000</t>
+  </si>
+  <si>
+    <t>2000000000000</t>
+  </si>
+  <si>
+    <t>3000000000000</t>
+  </si>
+  <si>
+    <t>4000000000000</t>
   </si>
 </sst>
 </file>
@@ -756,6 +768,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1077,10 +1090,10 @@
   <sheetPr/>
   <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
@@ -1377,11 +1390,11 @@
       <c r="S6" s="8">
         <v>80</v>
       </c>
-      <c r="T6" s="2">
-        <v>10000000000</v>
-      </c>
-      <c r="U6" s="2">
-        <v>10000000000</v>
+      <c r="T6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="U6" s="10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="3:21">
@@ -1436,11 +1449,11 @@
       <c r="S7" s="8">
         <v>80</v>
       </c>
-      <c r="T7" s="2">
-        <v>20000000000</v>
-      </c>
-      <c r="U7" s="2">
-        <v>20000000000</v>
+      <c r="T7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="U7" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="3:21">
@@ -1495,11 +1508,11 @@
       <c r="S8" s="8">
         <v>80</v>
       </c>
-      <c r="T8" s="2">
-        <v>30000000000</v>
-      </c>
-      <c r="U8" s="2">
-        <v>30000000000</v>
+      <c r="T8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="U8" s="10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="3:21">
@@ -1554,11 +1567,11 @@
       <c r="S9" s="8">
         <v>80</v>
       </c>
-      <c r="T9" s="2">
-        <v>40000000000</v>
-      </c>
-      <c r="U9" s="2">
-        <v>40000000000</v>
+      <c r="T9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="U9" s="10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="8:12">

--- a/Excel/DefendConfig.xlsx
+++ b/Excel/DefendConfig.xlsx
@@ -104,16 +104,16 @@
     <t>噩梦沙城</t>
   </si>
   <si>
-    <t>1000000000000</t>
-  </si>
-  <si>
-    <t>2000000000000</t>
-  </si>
-  <si>
-    <t>3000000000000</t>
-  </si>
-  <si>
-    <t>4000000000000</t>
+    <t>10000000000000</t>
+  </si>
+  <si>
+    <t>20000000000000</t>
+  </si>
+  <si>
+    <t>30000000000000</t>
+  </si>
+  <si>
+    <t>40000000000000</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1093,7 @@
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="S21" sqref="S21"/>
+      <selection pane="bottomLeft" activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>

--- a/Excel/DefendConfig.xlsx
+++ b/Excel/DefendConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -99,6 +99,69 @@
   </si>
   <si>
     <t>double</t>
+  </si>
+  <si>
+    <t>普通沙城</t>
+  </si>
+  <si>
+    <t>100000000000</t>
+  </si>
+  <si>
+    <t>1675000</t>
+  </si>
+  <si>
+    <t>335000</t>
+  </si>
+  <si>
+    <t>167500000</t>
+  </si>
+  <si>
+    <t>200000000000</t>
+  </si>
+  <si>
+    <t>141400000</t>
+  </si>
+  <si>
+    <t>28280000</t>
+  </si>
+  <si>
+    <t>14140000000</t>
+  </si>
+  <si>
+    <t>300000000000</t>
+  </si>
+  <si>
+    <t>8476600000</t>
+  </si>
+  <si>
+    <t>1695320000</t>
+  </si>
+  <si>
+    <t>5000000000000</t>
+  </si>
+  <si>
+    <t>400000000000</t>
+  </si>
+  <si>
+    <t>困难沙城</t>
+  </si>
+  <si>
+    <t>5000000000</t>
+  </si>
+  <si>
+    <t>100000000000000</t>
+  </si>
+  <si>
+    <t>1000000000000</t>
+  </si>
+  <si>
+    <t>2000000000000</t>
+  </si>
+  <si>
+    <t>3000000000000</t>
+  </si>
+  <si>
+    <t>4000000000000</t>
   </si>
   <si>
     <t>噩梦沙城</t>
@@ -293,12 +356,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -623,7 +692,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -647,16 +716,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -665,108 +734,120 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" quotePrefix="1"/>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
   </cellXfs>
@@ -1090,543 +1171,1032 @@
   <sheetPr/>
   <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="U12" sqref="U12"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8" style="3" customWidth="1"/>
     <col min="3" max="5" width="9.875" style="1" customWidth="1"/>
     <col min="6" max="7" width="11.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18.875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="17.125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="20.625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="20.25" style="3" customWidth="1"/>
-    <col min="14" max="14" width="8.375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8.875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="6.375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="8" style="2" customWidth="1"/>
-    <col min="18" max="18" width="5.875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="9.75" style="2" customWidth="1"/>
-    <col min="20" max="20" width="12.875" style="2" customWidth="1"/>
-    <col min="21" max="21" width="13.375" style="2" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="2"/>
+    <col min="8" max="8" width="17.625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="16.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="18.875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="17.125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="20.625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="20.25" style="4" customWidth="1"/>
+    <col min="14" max="14" width="8.375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="8.875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="6.375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="8" style="3" customWidth="1"/>
+    <col min="18" max="18" width="5.875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="9.75" style="3" customWidth="1"/>
+    <col min="20" max="20" width="12.875" style="3" customWidth="1"/>
+    <col min="21" max="21" width="13.375" style="3" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:21">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:21">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:21">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="T3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="U3" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:21">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="5" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="T4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="U4" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:21">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="9" t="s">
+      <c r="T5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="U5" s="9" t="s">
+      <c r="U5" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="3:21">
-      <c r="C6" s="1">
+    <row r="6" s="2" customFormat="1" customHeight="1" spans="3:21">
+      <c r="C6" s="8">
         <v>1</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8">
+        <v>25</v>
+      </c>
+      <c r="H6" s="9">
+        <v>165000</v>
+      </c>
+      <c r="I6" s="9">
+        <v>30000</v>
+      </c>
+      <c r="J6" s="9">
+        <v>33000</v>
+      </c>
+      <c r="K6" s="9">
+        <v>6000</v>
+      </c>
+      <c r="L6" s="9">
+        <v>16500000</v>
+      </c>
+      <c r="M6" s="9">
+        <v>3000000</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="U6" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" customHeight="1" spans="3:21">
+      <c r="C7" s="8">
+        <v>2</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>26</v>
+      </c>
+      <c r="G7" s="8">
+        <v>50</v>
+      </c>
+      <c r="H7" s="9">
+        <v>11600000</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="9">
+        <v>2320000</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="9">
+        <v>1160000000</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="2">
+        <v>10</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
+        <v>80</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="U7" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" customHeight="1" spans="3:21">
+      <c r="C8" s="8">
         <v>3</v>
       </c>
-      <c r="F6" s="1">
+      <c r="D8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="8">
         <v>1</v>
       </c>
-      <c r="G6" s="1">
+      <c r="F8" s="8">
+        <v>51</v>
+      </c>
+      <c r="G8" s="8">
+        <v>75</v>
+      </c>
+      <c r="H8" s="9">
+        <v>837025000</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="9">
+        <v>167405000</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="9">
+        <v>83702500000</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="2">
+        <v>20</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <v>80</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" customHeight="1" spans="3:21">
+      <c r="C9" s="8">
+        <v>4</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8">
+        <v>76</v>
+      </c>
+      <c r="G9" s="8">
+        <v>100</v>
+      </c>
+      <c r="H9" s="9">
+        <v>58655700000</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="9">
+        <v>11731140000</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="9">
+        <v>16863800000000</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="2">
+        <v>75</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10</v>
+      </c>
+      <c r="P9" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>15</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
+        <v>80</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="3:20">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="T10" s="13"/>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="3:21">
+      <c r="C11" s="8">
+        <v>11</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8">
         <v>25</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H11" s="9">
+        <v>70000000000</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="10">
+        <v>35000000000</v>
+      </c>
+      <c r="K11" s="9">
+        <v>1000000000</v>
+      </c>
+      <c r="L11" s="10">
+        <v>1400000000000000</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" s="11">
+        <v>135</v>
+      </c>
+      <c r="O11" s="11">
+        <v>65</v>
+      </c>
+      <c r="P11" s="11">
+        <v>100</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>100</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
+        <v>80</v>
+      </c>
+      <c r="T11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="U11" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" customHeight="1" spans="3:21">
+      <c r="C12" s="8">
+        <v>12</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="8">
+        <v>2</v>
+      </c>
+      <c r="F12" s="8">
+        <v>26</v>
+      </c>
+      <c r="G12" s="8">
+        <v>50</v>
+      </c>
+      <c r="H12" s="10">
+        <v>400000000000</v>
+      </c>
+      <c r="I12" s="9">
+        <v>30000000000</v>
+      </c>
+      <c r="J12" s="10">
+        <v>80000000000</v>
+      </c>
+      <c r="K12" s="9">
+        <v>6000000000</v>
+      </c>
+      <c r="L12" s="10">
+        <v>8000000000000000</v>
+      </c>
+      <c r="M12" s="9">
+        <v>600000000000000</v>
+      </c>
+      <c r="N12" s="11">
+        <v>160</v>
+      </c>
+      <c r="O12" s="11">
+        <v>90</v>
+      </c>
+      <c r="P12" s="11">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>100</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <v>80</v>
+      </c>
+      <c r="T12" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="U12" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="3:21">
+      <c r="C13" s="8">
+        <v>13</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="8">
+        <v>2</v>
+      </c>
+      <c r="F13" s="8">
+        <v>51</v>
+      </c>
+      <c r="G13" s="8">
+        <v>75</v>
+      </c>
+      <c r="H13" s="4">
+        <v>2200000000000</v>
+      </c>
+      <c r="I13" s="9">
+        <v>100000000000</v>
+      </c>
+      <c r="J13" s="9">
+        <v>440000000000</v>
+      </c>
+      <c r="K13" s="9">
+        <v>20000000000</v>
+      </c>
+      <c r="L13" s="9">
+        <v>4.4e+16</v>
+      </c>
+      <c r="M13" s="9">
+        <v>2000000000000000</v>
+      </c>
+      <c r="N13" s="11">
+        <v>185</v>
+      </c>
+      <c r="O13" s="11">
+        <v>115</v>
+      </c>
+      <c r="P13" s="11">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>100</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
+        <v>80</v>
+      </c>
+      <c r="T13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="U13" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="3:21">
+      <c r="C14" s="8">
+        <v>14</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="8">
+        <v>2</v>
+      </c>
+      <c r="F14" s="8">
+        <v>76</v>
+      </c>
+      <c r="G14" s="8">
+        <v>100</v>
+      </c>
+      <c r="H14" s="4">
+        <v>12000000000000</v>
+      </c>
+      <c r="I14" s="9">
+        <v>1000000000000</v>
+      </c>
+      <c r="J14" s="9">
+        <v>2400000000000</v>
+      </c>
+      <c r="K14" s="9">
+        <v>200000000000</v>
+      </c>
+      <c r="L14" s="9">
+        <v>2.4e+17</v>
+      </c>
+      <c r="M14" s="9">
+        <v>2e+16</v>
+      </c>
+      <c r="N14" s="11">
+        <v>209</v>
+      </c>
+      <c r="O14" s="11">
+        <v>139</v>
+      </c>
+      <c r="P14" s="11">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>100</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0</v>
+      </c>
+      <c r="S14" s="2">
+        <v>80</v>
+      </c>
+      <c r="T14" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="U14" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="3:13">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="3:21">
+      <c r="C16" s="8">
+        <v>21</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="8">
+        <v>3</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8">
+        <v>25</v>
+      </c>
+      <c r="H16" s="9">
         <v>70000000000000</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I16" s="9">
         <v>280000000000000</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J16" s="9">
         <v>350000000000000</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K16" s="9">
         <v>1400000000000000</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L16" s="9">
         <v>1400000000000000</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M16" s="9">
         <v>5600000000000000</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N16" s="2">
         <v>250</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O16" s="2">
         <v>150</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P16" s="2">
         <v>100</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q16" s="2">
         <v>100</v>
       </c>
-      <c r="R6" s="8">
-        <v>0</v>
-      </c>
-      <c r="S6" s="8">
+      <c r="R16" s="2">
+        <v>0</v>
+      </c>
+      <c r="S16" s="2">
         <v>80</v>
       </c>
-      <c r="T6" s="10" t="s">
+      <c r="T16" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="U16" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="3:21">
+      <c r="C17" s="8">
+        <v>22</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="8">
+        <v>3</v>
+      </c>
+      <c r="F17" s="8">
+        <v>26</v>
+      </c>
+      <c r="G17" s="8">
+        <v>50</v>
+      </c>
+      <c r="H17" s="9">
+        <v>700000000000000</v>
+      </c>
+      <c r="I17" s="9">
+        <v>2800000000000000</v>
+      </c>
+      <c r="J17" s="9">
+        <v>3500000000000000</v>
+      </c>
+      <c r="K17" s="9">
+        <v>1.4e+16</v>
+      </c>
+      <c r="L17" s="9">
+        <v>1.4e+16</v>
+      </c>
+      <c r="M17" s="9">
+        <v>5.6e+16</v>
+      </c>
+      <c r="N17" s="2">
+        <v>300</v>
+      </c>
+      <c r="O17" s="2">
+        <v>200</v>
+      </c>
+      <c r="P17" s="2">
+        <v>125</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>125</v>
+      </c>
+      <c r="R17" s="2">
+        <v>0</v>
+      </c>
+      <c r="S17" s="2">
+        <v>80</v>
+      </c>
+      <c r="T17" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="U17" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="3:21">
+      <c r="C18" s="8">
+        <v>23</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="8">
+        <v>3</v>
+      </c>
+      <c r="F18" s="8">
+        <v>51</v>
+      </c>
+      <c r="G18" s="8">
+        <v>75</v>
+      </c>
+      <c r="H18" s="9">
+        <v>7000000000000000</v>
+      </c>
+      <c r="I18" s="9">
+        <v>2.8e+16</v>
+      </c>
+      <c r="J18" s="9">
+        <v>3.5e+16</v>
+      </c>
+      <c r="K18" s="9">
+        <v>1.4e+17</v>
+      </c>
+      <c r="L18" s="9">
+        <v>1.4e+17</v>
+      </c>
+      <c r="M18" s="9">
+        <v>5.6e+17</v>
+      </c>
+      <c r="N18" s="2">
+        <v>350</v>
+      </c>
+      <c r="O18" s="2">
+        <v>250</v>
+      </c>
+      <c r="P18" s="2">
+        <v>150</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>150</v>
+      </c>
+      <c r="R18" s="2">
+        <v>0</v>
+      </c>
+      <c r="S18" s="2">
+        <v>80</v>
+      </c>
+      <c r="T18" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="U18" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="3:21">
+      <c r="C19" s="8">
         <v>24</v>
       </c>
-      <c r="U6" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="3:21">
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="8">
         <v>3</v>
       </c>
-      <c r="F7" s="1">
-        <v>26</v>
-      </c>
-      <c r="G7" s="1">
-        <v>50</v>
-      </c>
-      <c r="H7" s="7">
-        <v>700000000000000</v>
-      </c>
-      <c r="I7" s="7">
-        <v>2800000000000000</v>
-      </c>
-      <c r="J7" s="7">
-        <v>3500000000000000</v>
-      </c>
-      <c r="K7" s="7">
-        <v>1.4e+16</v>
-      </c>
-      <c r="L7" s="7">
-        <v>1.4e+16</v>
-      </c>
-      <c r="M7" s="7">
-        <v>5.6e+16</v>
-      </c>
-      <c r="N7" s="8">
+      <c r="F19" s="8">
+        <v>76</v>
+      </c>
+      <c r="G19" s="8">
+        <v>100</v>
+      </c>
+      <c r="H19" s="9">
+        <v>7e+16</v>
+      </c>
+      <c r="I19" s="9">
+        <v>2.8e+17</v>
+      </c>
+      <c r="J19" s="9">
+        <v>3.5e+17</v>
+      </c>
+      <c r="K19" s="9">
+        <v>1.4e+18</v>
+      </c>
+      <c r="L19" s="9">
+        <v>1.4e+18</v>
+      </c>
+      <c r="M19" s="9">
+        <v>5.6e+18</v>
+      </c>
+      <c r="N19" s="2">
+        <v>400</v>
+      </c>
+      <c r="O19" s="2">
         <v>300</v>
       </c>
-      <c r="O7" s="8">
-        <v>200</v>
-      </c>
-      <c r="P7" s="8">
-        <v>125</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>125</v>
-      </c>
-      <c r="R7" s="8">
-        <v>0</v>
-      </c>
-      <c r="S7" s="8">
+      <c r="P19" s="2">
+        <v>175</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>175</v>
+      </c>
+      <c r="R19" s="2">
+        <v>0</v>
+      </c>
+      <c r="S19" s="2">
         <v>80</v>
       </c>
-      <c r="T7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="U7" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="3:21">
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1">
-        <v>51</v>
-      </c>
-      <c r="G8" s="1">
-        <v>75</v>
-      </c>
-      <c r="H8" s="7">
-        <v>7000000000000000</v>
-      </c>
-      <c r="I8" s="7">
-        <v>2.8e+16</v>
-      </c>
-      <c r="J8" s="7">
-        <v>3.5e+16</v>
-      </c>
-      <c r="K8" s="7">
-        <v>1.4e+17</v>
-      </c>
-      <c r="L8" s="7">
-        <v>1.4e+17</v>
-      </c>
-      <c r="M8" s="7">
-        <v>5.6e+17</v>
-      </c>
-      <c r="N8" s="8">
-        <v>350</v>
-      </c>
-      <c r="O8" s="8">
-        <v>250</v>
-      </c>
-      <c r="P8" s="8">
-        <v>150</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>150</v>
-      </c>
-      <c r="R8" s="8">
-        <v>0</v>
-      </c>
-      <c r="S8" s="8">
-        <v>80</v>
-      </c>
-      <c r="T8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="U8" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="3:21">
-      <c r="C9" s="1">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="1">
-        <v>3</v>
-      </c>
-      <c r="F9" s="1">
-        <v>76</v>
-      </c>
-      <c r="G9" s="1">
-        <v>100</v>
-      </c>
-      <c r="H9" s="7">
-        <v>7e+16</v>
-      </c>
-      <c r="I9" s="7">
-        <v>2.8e+17</v>
-      </c>
-      <c r="J9" s="7">
-        <v>3.5e+17</v>
-      </c>
-      <c r="K9" s="7">
-        <v>1.4e+18</v>
-      </c>
-      <c r="L9" s="7">
-        <v>1.4e+18</v>
-      </c>
-      <c r="M9" s="7">
-        <v>5.6e+18</v>
-      </c>
-      <c r="N9" s="2">
-        <v>400</v>
-      </c>
-      <c r="O9" s="2">
-        <v>300</v>
-      </c>
-      <c r="P9" s="2">
-        <v>175</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>175</v>
-      </c>
-      <c r="R9" s="8">
-        <v>0</v>
-      </c>
-      <c r="S9" s="8">
-        <v>80</v>
-      </c>
-      <c r="T9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="U9" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="8:12">
-      <c r="H10" s="7"/>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="16" customHeight="1" spans="8:8">
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" customHeight="1" spans="8:8">
-      <c r="H17" s="7"/>
+      <c r="T19" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="U19" s="14" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="20" customHeight="1" spans="10:11">
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
     </row>
     <row r="21" customHeight="1" spans="10:11">
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
     </row>
     <row r="22" customHeight="1" spans="10:11">
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
     </row>
     <row r="23" customHeight="1" spans="10:11">
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
     </row>
     <row r="24" customHeight="1" spans="10:11">
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
     </row>
     <row r="25" customHeight="1" spans="10:11">
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
     </row>
     <row r="26" customHeight="1" spans="10:11">
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
     </row>
     <row r="27" customHeight="1" spans="10:11">
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
     </row>
     <row r="28" customHeight="1" spans="10:11">
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
     </row>
     <row r="29" customHeight="1" spans="10:11">
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 F3 G3 H3 I3 J3 K3 L3 M3 D4 F4 G4 H4 I4 J4 K4 L4 M4 C5 D5 E5 F5 G5 H5 I5 J5 K5 L5 M5 N5 O5 P5 Q5 R5 S5 C3:C4 E3:E4 N3:N4 O3:O4 P3:P4 Q3:Q4 R3:R4 S3:S4" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F3:M3 G4:M4 G5:S5 F4:F5 C3:E5 N3:S4" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/DefendConfig.xlsx
+++ b/Excel/DefendConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="53">
   <si>
     <t>ID</t>
   </si>
@@ -80,6 +80,9 @@
     <t>Accuracy</t>
   </si>
   <si>
+    <t>Miss</t>
+  </si>
+  <si>
     <t>MulDamageResist</t>
   </si>
   <si>
@@ -177,6 +180,15 @@
   </si>
   <si>
     <t>40000000000000</t>
+  </si>
+  <si>
+    <t>200000000000000</t>
+  </si>
+  <si>
+    <t>300000000000000</t>
+  </si>
+  <si>
+    <t>400000000000000</t>
   </si>
 </sst>
 </file>
@@ -1169,12 +1181,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U29"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1188,19 +1200,19 @@
     <col min="10" max="10" width="18.875" style="4" customWidth="1"/>
     <col min="11" max="11" width="17.125" style="4" customWidth="1"/>
     <col min="12" max="12" width="20.625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="20.25" style="4" customWidth="1"/>
+    <col min="13" max="13" width="21.625" style="4" customWidth="1"/>
     <col min="14" max="14" width="8.375" style="3" customWidth="1"/>
     <col min="15" max="15" width="8.875" style="3" customWidth="1"/>
     <col min="16" max="16" width="6.375" style="3" customWidth="1"/>
     <col min="17" max="17" width="8" style="3" customWidth="1"/>
-    <col min="18" max="18" width="5.875" style="3" customWidth="1"/>
-    <col min="19" max="19" width="9.75" style="3" customWidth="1"/>
-    <col min="20" max="20" width="12.875" style="3" customWidth="1"/>
-    <col min="21" max="21" width="13.375" style="3" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="3"/>
+    <col min="18" max="19" width="7.25" style="3" customWidth="1"/>
+    <col min="20" max="20" width="9.75" style="3" customWidth="1"/>
+    <col min="21" max="21" width="12.875" style="3" customWidth="1"/>
+    <col min="22" max="22" width="13.375" style="3" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:21">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="H1" s="5"/>
@@ -1217,8 +1229,9 @@
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
-    </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:21">
+      <c r="V1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="H2" s="5"/>
@@ -1235,8 +1248,9 @@
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
-    </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:21">
+      <c r="V2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="6" t="s">
@@ -1290,18 +1304,21 @@
       <c r="S3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="T3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="U3" s="12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:21">
+      <c r="V3" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>1</v>
@@ -1351,80 +1368,86 @@
       <c r="S4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="12" t="s">
+      <c r="T4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="U4" s="12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:21">
+      <c r="V4" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="O5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="P5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="Q5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="R5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="S5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="T5" s="12" t="s">
-        <v>22</v>
+      <c r="T5" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" customHeight="1" spans="3:21">
+        <v>23</v>
+      </c>
+      <c r="V5" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" customHeight="1" spans="3:22">
       <c r="C6" s="8">
         <v>1</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" s="8">
         <v>1</v>
@@ -1471,19 +1494,22 @@
       <c r="S6" s="2">
         <v>0</v>
       </c>
-      <c r="T6" s="14" t="s">
-        <v>24</v>
+      <c r="T6" s="2">
+        <v>0</v>
       </c>
       <c r="U6" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" customHeight="1" spans="3:21">
+        <v>25</v>
+      </c>
+      <c r="V6" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" customHeight="1" spans="3:22">
       <c r="C7" s="8">
         <v>2</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="8">
         <v>1</v>
@@ -1498,19 +1524,19 @@
         <v>11600000</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J7" s="9">
         <v>2320000</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L7" s="9">
         <v>1160000000</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N7" s="2">
         <v>10</v>
@@ -1528,21 +1554,24 @@
         <v>0</v>
       </c>
       <c r="S7" s="2">
-        <v>80</v>
-      </c>
-      <c r="T7" s="14" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0</v>
       </c>
       <c r="U7" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" customHeight="1" spans="3:21">
+        <v>29</v>
+      </c>
+      <c r="V7" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" customHeight="1" spans="3:22">
       <c r="C8" s="8">
         <v>3</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" s="8">
         <v>1</v>
@@ -1557,19 +1586,19 @@
         <v>837025000</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J8" s="9">
         <v>167405000</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L8" s="9">
         <v>83702500000</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N8" s="2">
         <v>20</v>
@@ -1587,21 +1616,24 @@
         <v>0</v>
       </c>
       <c r="S8" s="2">
-        <v>80</v>
-      </c>
-      <c r="T8" s="14" t="s">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0</v>
       </c>
       <c r="U8" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" customHeight="1" spans="3:21">
+        <v>33</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" customHeight="1" spans="3:22">
       <c r="C9" s="8">
         <v>4</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" s="8">
         <v>1</v>
@@ -1616,19 +1648,19 @@
         <v>58655700000</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J9" s="9">
         <v>11731140000</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L9" s="9">
         <v>16863800000000</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N9" s="2">
         <v>75</v>
@@ -1646,16 +1678,19 @@
         <v>0</v>
       </c>
       <c r="S9" s="2">
-        <v>80</v>
-      </c>
-      <c r="T9" s="14" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
       </c>
       <c r="U9" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" customHeight="1" spans="3:20">
+        <v>37</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="3:21">
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1667,14 +1702,14 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
-      <c r="T10" s="13"/>
-    </row>
-    <row r="11" s="2" customFormat="1" customHeight="1" spans="3:21">
+      <c r="U10" s="13"/>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="3:22">
       <c r="C11" s="8">
         <v>11</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" s="8">
         <v>2</v>
@@ -1689,7 +1724,7 @@
         <v>70000000000</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J11" s="10">
         <v>35000000000</v>
@@ -1701,7 +1736,7 @@
         <v>1400000000000000</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N11" s="11">
         <v>135</v>
@@ -1719,21 +1754,24 @@
         <v>0</v>
       </c>
       <c r="S11" s="2">
-        <v>80</v>
-      </c>
-      <c r="T11" s="14" t="s">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
       </c>
       <c r="U11" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" s="2" customFormat="1" customHeight="1" spans="3:21">
+        <v>41</v>
+      </c>
+      <c r="V11" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" customHeight="1" spans="3:22">
       <c r="C12" s="8">
         <v>12</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E12" s="8">
         <v>2</v>
@@ -1778,21 +1816,24 @@
         <v>0</v>
       </c>
       <c r="S12" s="2">
-        <v>80</v>
-      </c>
-      <c r="T12" s="14" t="s">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0</v>
       </c>
       <c r="U12" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" customHeight="1" spans="3:21">
+        <v>42</v>
+      </c>
+      <c r="V12" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="3:22">
       <c r="C13" s="8">
         <v>13</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E13" s="8">
         <v>2</v>
@@ -1837,21 +1878,24 @@
         <v>0</v>
       </c>
       <c r="S13" s="2">
-        <v>80</v>
-      </c>
-      <c r="T13" s="14" t="s">
-        <v>42</v>
+        <v>0</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0</v>
       </c>
       <c r="U13" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" customHeight="1" spans="3:21">
+        <v>43</v>
+      </c>
+      <c r="V13" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="3:22">
       <c r="C14" s="8">
         <v>14</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E14" s="8">
         <v>2</v>
@@ -1896,13 +1940,16 @@
         <v>0</v>
       </c>
       <c r="S14" s="2">
-        <v>80</v>
-      </c>
-      <c r="T14" s="14" t="s">
-        <v>43</v>
+        <v>0</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0</v>
       </c>
       <c r="U14" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="V14" s="14" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:13">
@@ -1918,12 +1965,12 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" s="2" customFormat="1" customHeight="1" spans="3:21">
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="3:22">
       <c r="C16" s="8">
         <v>21</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E16" s="8">
         <v>3</v>
@@ -1968,21 +2015,24 @@
         <v>0</v>
       </c>
       <c r="S16" s="2">
+        <v>0</v>
+      </c>
+      <c r="T16" s="2">
         <v>80</v>
       </c>
-      <c r="T16" s="14" t="s">
-        <v>45</v>
-      </c>
       <c r="U16" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="1" customHeight="1" spans="3:21">
+        <v>46</v>
+      </c>
+      <c r="V16" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="3:22">
       <c r="C17" s="8">
         <v>22</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E17" s="8">
         <v>3</v>
@@ -2027,21 +2077,24 @@
         <v>0</v>
       </c>
       <c r="S17" s="2">
+        <v>0</v>
+      </c>
+      <c r="T17" s="2">
         <v>80</v>
       </c>
-      <c r="T17" s="14" t="s">
-        <v>46</v>
-      </c>
       <c r="U17" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" s="2" customFormat="1" customHeight="1" spans="3:21">
+        <v>47</v>
+      </c>
+      <c r="V17" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="3:22">
       <c r="C18" s="8">
         <v>23</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18" s="8">
         <v>3</v>
@@ -2086,21 +2139,24 @@
         <v>0</v>
       </c>
       <c r="S18" s="2">
+        <v>0</v>
+      </c>
+      <c r="T18" s="2">
         <v>80</v>
       </c>
-      <c r="T18" s="14" t="s">
-        <v>47</v>
-      </c>
       <c r="U18" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" s="2" customFormat="1" customHeight="1" spans="3:21">
+        <v>48</v>
+      </c>
+      <c r="V18" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="3:22">
       <c r="C19" s="8">
         <v>24</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E19" s="8">
         <v>3</v>
@@ -2145,34 +2201,282 @@
         <v>0</v>
       </c>
       <c r="S19" s="2">
+        <v>0</v>
+      </c>
+      <c r="T19" s="2">
         <v>80</v>
       </c>
-      <c r="T19" s="14" t="s">
-        <v>48</v>
-      </c>
       <c r="U19" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="10:11">
+        <v>49</v>
+      </c>
+      <c r="V19" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="10:21">
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
-    </row>
-    <row r="21" customHeight="1" spans="10:11">
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-    </row>
-    <row r="22" customHeight="1" spans="10:11">
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-    </row>
-    <row r="23" customHeight="1" spans="10:11">
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-    </row>
-    <row r="24" customHeight="1" spans="10:11">
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
+      <c r="U20" s="2"/>
+    </row>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="3:22">
+      <c r="C21" s="8">
+        <v>25</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="8">
+        <v>4</v>
+      </c>
+      <c r="F21" s="8">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8">
+        <v>25</v>
+      </c>
+      <c r="H21" s="9">
+        <v>9.9e+16</v>
+      </c>
+      <c r="I21" s="9">
+        <f t="shared" ref="I21:I24" si="0">H21*4</f>
+        <v>3.96e+17</v>
+      </c>
+      <c r="J21" s="9">
+        <v>9.9e+16</v>
+      </c>
+      <c r="K21" s="9">
+        <f t="shared" ref="K21:K24" si="1">J21*4</f>
+        <v>3.96e+17</v>
+      </c>
+      <c r="L21" s="9">
+        <v>9.9e+22</v>
+      </c>
+      <c r="M21" s="9">
+        <f t="shared" ref="M21:M24" si="2">L21*4</f>
+        <v>3.96e+23</v>
+      </c>
+      <c r="N21" s="2">
+        <v>600</v>
+      </c>
+      <c r="O21" s="2">
+        <v>600</v>
+      </c>
+      <c r="P21" s="2">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>100</v>
+      </c>
+      <c r="R21" s="2">
+        <v>40</v>
+      </c>
+      <c r="S21" s="2">
+        <v>40</v>
+      </c>
+      <c r="T21" s="2">
+        <v>80</v>
+      </c>
+      <c r="U21" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="V21" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" customHeight="1" spans="3:22">
+      <c r="C22" s="8">
+        <v>26</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="8">
+        <v>4</v>
+      </c>
+      <c r="F22" s="8">
+        <v>26</v>
+      </c>
+      <c r="G22" s="8">
+        <v>50</v>
+      </c>
+      <c r="H22" s="9">
+        <v>9.9e+17</v>
+      </c>
+      <c r="I22" s="9">
+        <f t="shared" si="0"/>
+        <v>3.96e+18</v>
+      </c>
+      <c r="J22" s="9">
+        <v>9.9e+17</v>
+      </c>
+      <c r="K22" s="9">
+        <f t="shared" si="1"/>
+        <v>3.96e+18</v>
+      </c>
+      <c r="L22" s="9">
+        <v>9.9e+23</v>
+      </c>
+      <c r="M22" s="9">
+        <f t="shared" si="2"/>
+        <v>3.96e+24</v>
+      </c>
+      <c r="N22" s="2">
+        <v>700</v>
+      </c>
+      <c r="O22" s="2">
+        <v>700</v>
+      </c>
+      <c r="P22" s="2">
+        <v>125</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>125</v>
+      </c>
+      <c r="R22" s="2">
+        <v>40</v>
+      </c>
+      <c r="S22" s="2">
+        <v>40</v>
+      </c>
+      <c r="T22" s="2">
+        <v>80</v>
+      </c>
+      <c r="U22" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="3:22">
+      <c r="C23" s="8">
+        <v>27</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="8">
+        <v>4</v>
+      </c>
+      <c r="F23" s="8">
+        <v>51</v>
+      </c>
+      <c r="G23" s="8">
+        <v>75</v>
+      </c>
+      <c r="H23" s="9">
+        <v>9.9e+18</v>
+      </c>
+      <c r="I23" s="9">
+        <f t="shared" si="0"/>
+        <v>3.96e+19</v>
+      </c>
+      <c r="J23" s="9">
+        <v>9.9e+18</v>
+      </c>
+      <c r="K23" s="9">
+        <f t="shared" si="1"/>
+        <v>3.96e+19</v>
+      </c>
+      <c r="L23" s="9">
+        <v>9.9e+24</v>
+      </c>
+      <c r="M23" s="9">
+        <f t="shared" si="2"/>
+        <v>3.96e+25</v>
+      </c>
+      <c r="N23" s="2">
+        <v>800</v>
+      </c>
+      <c r="O23" s="2">
+        <v>800</v>
+      </c>
+      <c r="P23" s="2">
+        <v>150</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>150</v>
+      </c>
+      <c r="R23" s="2">
+        <v>40</v>
+      </c>
+      <c r="S23" s="2">
+        <v>40</v>
+      </c>
+      <c r="T23" s="2">
+        <v>80</v>
+      </c>
+      <c r="U23" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="V23" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="3:22">
+      <c r="C24" s="8">
+        <v>28</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="8">
+        <v>4</v>
+      </c>
+      <c r="F24" s="8">
+        <v>76</v>
+      </c>
+      <c r="G24" s="8">
+        <v>100</v>
+      </c>
+      <c r="H24" s="9">
+        <v>9.9e+19</v>
+      </c>
+      <c r="I24" s="9">
+        <f t="shared" si="0"/>
+        <v>3.96e+20</v>
+      </c>
+      <c r="J24" s="9">
+        <v>9.9e+19</v>
+      </c>
+      <c r="K24" s="9">
+        <f t="shared" si="1"/>
+        <v>3.96e+20</v>
+      </c>
+      <c r="L24" s="9">
+        <v>9.9e+25</v>
+      </c>
+      <c r="M24" s="9">
+        <f t="shared" si="2"/>
+        <v>3.96e+26</v>
+      </c>
+      <c r="N24" s="2">
+        <v>900</v>
+      </c>
+      <c r="O24" s="2">
+        <v>900</v>
+      </c>
+      <c r="P24" s="2">
+        <v>175</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>175</v>
+      </c>
+      <c r="R24" s="2">
+        <v>40</v>
+      </c>
+      <c r="S24" s="2">
+        <v>40</v>
+      </c>
+      <c r="T24" s="2">
+        <v>80</v>
+      </c>
+      <c r="U24" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="V24" s="14" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="25" customHeight="1" spans="10:11">
       <c r="J25" s="10"/>
@@ -2196,7 +2500,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F3:M3 G4:M4 G5:S5 F4:F5 C3:E5 N3:S4" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F3:M3 S3 G4:M4 S4 G5:R5 S5 T5 F4:F5 T3:T4 C3:E5 N3:R4" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/DefendConfig.xlsx
+++ b/Excel/DefendConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="58">
   <si>
     <t>ID</t>
   </si>
@@ -182,10 +182,25 @@
     <t>40000000000000</t>
   </si>
   <si>
+    <t>地狱沙城</t>
+  </si>
+  <si>
+    <t>9900000000000000000000000</t>
+  </si>
+  <si>
+    <t>990000000000000000000000000</t>
+  </si>
+  <si>
     <t>200000000000000</t>
   </si>
   <si>
+    <t>99000000000000000000000000000</t>
+  </si>
+  <si>
     <t>300000000000000</t>
+  </si>
+  <si>
+    <t>9900000000000000000000000000000</t>
   </si>
   <si>
     <t>400000000000000</t>
@@ -1186,7 +1201,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L29" sqref="L29"/>
+      <selection pane="bottomLeft" activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1199,8 +1214,8 @@
     <col min="9" max="9" width="16.5" style="4" customWidth="1"/>
     <col min="10" max="10" width="18.875" style="4" customWidth="1"/>
     <col min="11" max="11" width="17.125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="20.625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="21.625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="23" style="4" customWidth="1"/>
+    <col min="13" max="13" width="24.75" style="4" customWidth="1"/>
     <col min="14" max="14" width="8.375" style="3" customWidth="1"/>
     <col min="15" max="15" width="8.875" style="3" customWidth="1"/>
     <col min="16" max="16" width="6.375" style="3" customWidth="1"/>
@@ -2223,7 +2238,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E21" s="8">
         <v>4</v>
@@ -2248,12 +2263,12 @@
         <f t="shared" ref="K21:K24" si="1">J21*4</f>
         <v>3.96e+17</v>
       </c>
-      <c r="L21" s="9">
-        <v>9.9e+22</v>
+      <c r="L21" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="M21" s="9">
         <f t="shared" ref="M21:M24" si="2">L21*4</f>
-        <v>3.96e+23</v>
+        <v>3.96e+25</v>
       </c>
       <c r="N21" s="2">
         <v>600</v>
@@ -2288,7 +2303,7 @@
         <v>26</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E22" s="8">
         <v>4</v>
@@ -2313,12 +2328,12 @@
         <f t="shared" si="1"/>
         <v>3.96e+18</v>
       </c>
-      <c r="L22" s="9">
-        <v>9.9e+23</v>
+      <c r="L22" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="M22" s="9">
         <f t="shared" si="2"/>
-        <v>3.96e+24</v>
+        <v>3.96e+27</v>
       </c>
       <c r="N22" s="2">
         <v>700</v>
@@ -2342,10 +2357,10 @@
         <v>80</v>
       </c>
       <c r="U22" s="14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="V22" s="14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:22">
@@ -2353,7 +2368,7 @@
         <v>27</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E23" s="8">
         <v>4</v>
@@ -2378,12 +2393,12 @@
         <f t="shared" si="1"/>
         <v>3.96e+19</v>
       </c>
-      <c r="L23" s="9">
-        <v>9.9e+24</v>
+      <c r="L23" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="M23" s="9">
         <f t="shared" si="2"/>
-        <v>3.96e+25</v>
+        <v>3.96e+29</v>
       </c>
       <c r="N23" s="2">
         <v>800</v>
@@ -2407,10 +2422,10 @@
         <v>80</v>
       </c>
       <c r="U23" s="14" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="V23" s="14" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="3:22">
@@ -2418,7 +2433,7 @@
         <v>28</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E24" s="8">
         <v>4</v>
@@ -2443,12 +2458,12 @@
         <f t="shared" si="1"/>
         <v>3.96e+20</v>
       </c>
-      <c r="L24" s="9">
-        <v>9.9e+25</v>
+      <c r="L24" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="M24" s="9">
         <f t="shared" si="2"/>
-        <v>3.96e+26</v>
+        <v>3.96e+31</v>
       </c>
       <c r="N24" s="2">
         <v>900</v>
@@ -2472,10 +2487,10 @@
         <v>80</v>
       </c>
       <c r="U24" s="14" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="V24" s="14" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="10:11">
@@ -2500,7 +2515,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F3:M3 S3 G4:M4 S4 G5:R5 S5 T5 F4:F5 T3:T4 C3:E5 N3:R4" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F3:M3 G4:M4 G5:R5 F4:F5 C3:E5 N3:R4 S3:T5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/DefendConfig.xlsx
+++ b/Excel/DefendConfig.xlsx
@@ -185,22 +185,22 @@
     <t>地狱沙城</t>
   </si>
   <si>
-    <t>9900000000000000000000000</t>
-  </si>
-  <si>
     <t>990000000000000000000000000</t>
   </si>
   <si>
+    <t>99000000000000000000000000000</t>
+  </si>
+  <si>
     <t>200000000000000</t>
   </si>
   <si>
-    <t>99000000000000000000000000000</t>
+    <t>9900000000000000000000000000000</t>
   </si>
   <si>
     <t>300000000000000</t>
   </si>
   <si>
-    <t>9900000000000000000000000000000</t>
+    <t>990000000000000000000000000000000</t>
   </si>
   <si>
     <t>400000000000000</t>
@@ -217,7 +217,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +235,12 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -713,137 +719,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -866,6 +872,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1196,12 +1205,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V29"/>
+  <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L28" sqref="L28"/>
+      <selection pane="bottomLeft" activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1213,9 +1222,9 @@
     <col min="8" max="8" width="17.625" style="4" customWidth="1"/>
     <col min="9" max="9" width="16.5" style="4" customWidth="1"/>
     <col min="10" max="10" width="18.875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="17.125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="23" style="4" customWidth="1"/>
-    <col min="13" max="13" width="24.75" style="4" customWidth="1"/>
+    <col min="11" max="11" width="19.25" style="4" customWidth="1"/>
+    <col min="12" max="12" width="30" style="4" customWidth="1"/>
+    <col min="13" max="13" width="26.875" style="4" customWidth="1"/>
     <col min="14" max="14" width="8.375" style="3" customWidth="1"/>
     <col min="15" max="15" width="8.875" style="3" customWidth="1"/>
     <col min="16" max="16" width="6.375" style="3" customWidth="1"/>
@@ -1322,10 +1331,10 @@
       <c r="T3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="U3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="V3" s="13" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1386,10 +1395,10 @@
       <c r="T4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="U4" s="12" t="s">
+      <c r="U4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="V4" s="12" t="s">
+      <c r="V4" s="13" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1450,10 +1459,10 @@
       <c r="T5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="U5" s="12" t="s">
+      <c r="U5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="V5" s="12" t="s">
+      <c r="V5" s="13" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1512,10 +1521,10 @@
       <c r="T6" s="2">
         <v>0</v>
       </c>
-      <c r="U6" s="14" t="s">
+      <c r="U6" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="V6" s="14" t="s">
+      <c r="V6" s="15" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1538,19 +1547,19 @@
       <c r="H7" s="9">
         <v>11600000</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="16" t="s">
         <v>26</v>
       </c>
       <c r="J7" s="9">
         <v>2320000</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="16" t="s">
         <v>27</v>
       </c>
       <c r="L7" s="9">
         <v>1160000000</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="M7" s="16" t="s">
         <v>28</v>
       </c>
       <c r="N7" s="2">
@@ -1574,10 +1583,10 @@
       <c r="T7" s="2">
         <v>0</v>
       </c>
-      <c r="U7" s="14" t="s">
+      <c r="U7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="V7" s="14" t="s">
+      <c r="V7" s="15" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1600,19 +1609,19 @@
       <c r="H8" s="9">
         <v>837025000</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="16" t="s">
         <v>30</v>
       </c>
       <c r="J8" s="9">
         <v>167405000</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="16" t="s">
         <v>31</v>
       </c>
       <c r="L8" s="9">
         <v>83702500000</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="M8" s="16" t="s">
         <v>32</v>
       </c>
       <c r="N8" s="2">
@@ -1636,10 +1645,10 @@
       <c r="T8" s="2">
         <v>0</v>
       </c>
-      <c r="U8" s="14" t="s">
+      <c r="U8" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="14" t="s">
+      <c r="V8" s="15" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1662,19 +1671,19 @@
       <c r="H9" s="9">
         <v>58655700000</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="15" t="s">
         <v>34</v>
       </c>
       <c r="J9" s="9">
         <v>11731140000</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="16" t="s">
         <v>35</v>
       </c>
       <c r="L9" s="9">
         <v>16863800000000</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="M9" s="16" t="s">
         <v>36</v>
       </c>
       <c r="N9" s="2">
@@ -1698,10 +1707,10 @@
       <c r="T9" s="2">
         <v>0</v>
       </c>
-      <c r="U9" s="14" t="s">
+      <c r="U9" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="V9" s="14" t="s">
+      <c r="V9" s="15" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1717,7 +1726,7 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
-      <c r="U10" s="13"/>
+      <c r="U10" s="14"/>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:22">
       <c r="C11" s="8">
@@ -1738,7 +1747,7 @@
       <c r="H11" s="9">
         <v>70000000000</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="17" t="s">
         <v>39</v>
       </c>
       <c r="J11" s="10">
@@ -1750,7 +1759,7 @@
       <c r="L11" s="10">
         <v>1400000000000000</v>
       </c>
-      <c r="M11" s="15" t="s">
+      <c r="M11" s="16" t="s">
         <v>40</v>
       </c>
       <c r="N11" s="11">
@@ -1774,10 +1783,10 @@
       <c r="T11" s="2">
         <v>0</v>
       </c>
-      <c r="U11" s="14" t="s">
+      <c r="U11" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="V11" s="14" t="s">
+      <c r="V11" s="15" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1836,10 +1845,10 @@
       <c r="T12" s="2">
         <v>0</v>
       </c>
-      <c r="U12" s="14" t="s">
+      <c r="U12" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="V12" s="14" t="s">
+      <c r="V12" s="15" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1898,10 +1907,10 @@
       <c r="T13" s="2">
         <v>0</v>
       </c>
-      <c r="U13" s="14" t="s">
+      <c r="U13" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="V13" s="14" t="s">
+      <c r="V13" s="15" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1960,10 +1969,10 @@
       <c r="T14" s="2">
         <v>0</v>
       </c>
-      <c r="U14" s="14" t="s">
+      <c r="U14" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="V14" s="14" t="s">
+      <c r="V14" s="15" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2009,10 +2018,10 @@
         <v>1400000000000000</v>
       </c>
       <c r="L16" s="9">
-        <v>1400000000000000</v>
+        <v>1.4e+19</v>
       </c>
       <c r="M16" s="9">
-        <v>5600000000000000</v>
+        <v>5.6e+19</v>
       </c>
       <c r="N16" s="2">
         <v>250</v>
@@ -2035,10 +2044,10 @@
       <c r="T16" s="2">
         <v>80</v>
       </c>
-      <c r="U16" s="14" t="s">
+      <c r="U16" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="V16" s="14" t="s">
+      <c r="V16" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2071,10 +2080,10 @@
         <v>1.4e+16</v>
       </c>
       <c r="L17" s="9">
-        <v>1.4e+16</v>
+        <v>1.4e+20</v>
       </c>
       <c r="M17" s="9">
-        <v>5.6e+16</v>
+        <v>5.6e+20</v>
       </c>
       <c r="N17" s="2">
         <v>300</v>
@@ -2097,10 +2106,10 @@
       <c r="T17" s="2">
         <v>80</v>
       </c>
-      <c r="U17" s="14" t="s">
+      <c r="U17" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="V17" s="14" t="s">
+      <c r="V17" s="15" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2133,10 +2142,10 @@
         <v>1.4e+17</v>
       </c>
       <c r="L18" s="9">
-        <v>1.4e+17</v>
+        <v>1.4e+21</v>
       </c>
       <c r="M18" s="9">
-        <v>5.6e+17</v>
+        <v>5.6e+21</v>
       </c>
       <c r="N18" s="2">
         <v>350</v>
@@ -2159,10 +2168,10 @@
       <c r="T18" s="2">
         <v>80</v>
       </c>
-      <c r="U18" s="14" t="s">
+      <c r="U18" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="V18" s="14" t="s">
+      <c r="V18" s="15" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2195,10 +2204,10 @@
         <v>1.4e+18</v>
       </c>
       <c r="L19" s="9">
-        <v>1.4e+18</v>
+        <v>1.4e+22</v>
       </c>
       <c r="M19" s="9">
-        <v>5.6e+18</v>
+        <v>5.6e+22</v>
       </c>
       <c r="N19" s="2">
         <v>400</v>
@@ -2221,16 +2230,18 @@
       <c r="T19" s="2">
         <v>80</v>
       </c>
-      <c r="U19" s="14" t="s">
+      <c r="U19" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="V19" s="14" t="s">
+      <c r="V19" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="10:21">
+    <row r="20" customHeight="1" spans="8:21">
+      <c r="H20" s="9"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
+      <c r="L20" s="9"/>
       <c r="U20" s="2"/>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="3:22">
@@ -2263,12 +2274,12 @@
         <f t="shared" ref="K21:K24" si="1">J21*4</f>
         <v>3.96e+17</v>
       </c>
-      <c r="L21" s="15" t="s">
+      <c r="L21" s="16" t="s">
         <v>51</v>
       </c>
       <c r="M21" s="9">
         <f t="shared" ref="M21:M24" si="2">L21*4</f>
-        <v>3.96e+25</v>
+        <v>3.96e+27</v>
       </c>
       <c r="N21" s="2">
         <v>600</v>
@@ -2291,10 +2302,10 @@
       <c r="T21" s="2">
         <v>80</v>
       </c>
-      <c r="U21" s="14" t="s">
+      <c r="U21" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="V21" s="14" t="s">
+      <c r="V21" s="15" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2328,12 +2339,12 @@
         <f t="shared" si="1"/>
         <v>3.96e+18</v>
       </c>
-      <c r="L22" s="15" t="s">
+      <c r="L22" s="16" t="s">
         <v>52</v>
       </c>
       <c r="M22" s="9">
         <f t="shared" si="2"/>
-        <v>3.96e+27</v>
+        <v>3.96e+29</v>
       </c>
       <c r="N22" s="2">
         <v>700</v>
@@ -2356,10 +2367,10 @@
       <c r="T22" s="2">
         <v>80</v>
       </c>
-      <c r="U22" s="14" t="s">
+      <c r="U22" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="V22" s="14" t="s">
+      <c r="V22" s="15" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2393,12 +2404,12 @@
         <f t="shared" si="1"/>
         <v>3.96e+19</v>
       </c>
-      <c r="L23" s="15" t="s">
+      <c r="L23" s="16" t="s">
         <v>54</v>
       </c>
       <c r="M23" s="9">
         <f t="shared" si="2"/>
-        <v>3.96e+29</v>
+        <v>3.96e+31</v>
       </c>
       <c r="N23" s="2">
         <v>800</v>
@@ -2421,10 +2432,10 @@
       <c r="T23" s="2">
         <v>80</v>
       </c>
-      <c r="U23" s="14" t="s">
+      <c r="U23" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="V23" s="14" t="s">
+      <c r="V23" s="15" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2458,12 +2469,12 @@
         <f t="shared" si="1"/>
         <v>3.96e+20</v>
       </c>
-      <c r="L24" s="15" t="s">
+      <c r="L24" s="16" t="s">
         <v>56</v>
       </c>
       <c r="M24" s="9">
         <f t="shared" si="2"/>
-        <v>3.96e+31</v>
+        <v>3.96e+33</v>
       </c>
       <c r="N24" s="2">
         <v>900</v>
@@ -2486,10 +2497,10 @@
       <c r="T24" s="2">
         <v>80</v>
       </c>
-      <c r="U24" s="14" t="s">
+      <c r="U24" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="V24" s="14" t="s">
+      <c r="V24" s="15" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2509,13 +2520,18 @@
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
     </row>
-    <row r="29" customHeight="1" spans="10:11">
+    <row r="29" customHeight="1" spans="10:12">
       <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+    </row>
+    <row r="30" customHeight="1" spans="11:12">
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F3:M3 G4:M4 G5:R5 F4:F5 C3:E5 N3:R4 S3:T5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F3:M3 G4:M4 G5:R5 F4:F5 N3:R4 C3:E5 S3:T5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/DefendConfig.xlsx
+++ b/Excel/DefendConfig.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="65">
   <si>
     <t>ID</t>
   </si>
@@ -185,19 +185,40 @@
     <t>地狱沙城</t>
   </si>
   <si>
+    <t>990000000000000000000</t>
+  </si>
+  <si>
+    <t>9900000000000000000000</t>
+  </si>
+  <si>
     <t>990000000000000000000000000</t>
   </si>
   <si>
+    <t>99000000000000000000000</t>
+  </si>
+  <si>
+    <t>990000000000000000000000</t>
+  </si>
+  <si>
     <t>99000000000000000000000000000</t>
   </si>
   <si>
     <t>200000000000000</t>
   </si>
   <si>
+    <t>9900000000000000000000000</t>
+  </si>
+  <si>
+    <t>99000000000000000000000000</t>
+  </si>
+  <si>
     <t>9900000000000000000000000000000</t>
   </si>
   <si>
     <t>300000000000000</t>
+  </si>
+  <si>
+    <t>9900000000000000000000000000</t>
   </si>
   <si>
     <t>990000000000000000000000000000000</t>
@@ -1208,21 +1229,22 @@
   <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L25" sqref="L25"/>
+      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8" style="3" customWidth="1"/>
-    <col min="3" max="5" width="9.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="3.125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.875" style="1" customWidth="1"/>
     <col min="6" max="7" width="11.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="18.875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="19.25" style="4" customWidth="1"/>
+    <col min="8" max="8" width="22.875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="24.125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="23.375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="23.625" style="4" customWidth="1"/>
     <col min="12" max="12" width="30" style="4" customWidth="1"/>
     <col min="13" max="13" width="26.875" style="4" customWidth="1"/>
     <col min="14" max="14" width="8.375" style="3" customWidth="1"/>
@@ -2239,7 +2261,7 @@
     </row>
     <row r="20" customHeight="1" spans="8:21">
       <c r="H20" s="9"/>
-      <c r="J20" s="10"/>
+      <c r="J20" s="9"/>
       <c r="K20" s="10"/>
       <c r="L20" s="9"/>
       <c r="U20" s="2"/>
@@ -2260,22 +2282,22 @@
       <c r="G21" s="8">
         <v>25</v>
       </c>
-      <c r="H21" s="9">
-        <v>9.9e+16</v>
+      <c r="H21" s="16" t="s">
+        <v>51</v>
       </c>
       <c r="I21" s="9">
         <f t="shared" ref="I21:I24" si="0">H21*4</f>
-        <v>3.96e+17</v>
-      </c>
-      <c r="J21" s="9">
-        <v>9.9e+16</v>
+        <v>3.96e+21</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="K21" s="9">
         <f t="shared" ref="K21:K24" si="1">J21*4</f>
-        <v>3.96e+17</v>
+        <v>3.96e+22</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M21" s="9">
         <f t="shared" ref="M21:M24" si="2">L21*4</f>
@@ -2325,22 +2347,22 @@
       <c r="G22" s="8">
         <v>50</v>
       </c>
-      <c r="H22" s="9">
-        <v>9.9e+17</v>
+      <c r="H22" s="16" t="s">
+        <v>54</v>
       </c>
       <c r="I22" s="9">
         <f t="shared" si="0"/>
-        <v>3.96e+18</v>
-      </c>
-      <c r="J22" s="9">
-        <v>9.9e+17</v>
+        <v>3.96e+23</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="K22" s="9">
         <f t="shared" si="1"/>
-        <v>3.96e+18</v>
+        <v>3.96e+24</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M22" s="9">
         <f t="shared" si="2"/>
@@ -2368,10 +2390,10 @@
         <v>80</v>
       </c>
       <c r="U22" s="15" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="V22" s="15" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:22">
@@ -2390,22 +2412,22 @@
       <c r="G23" s="8">
         <v>75</v>
       </c>
-      <c r="H23" s="9">
-        <v>9.9e+18</v>
+      <c r="H23" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="I23" s="9">
         <f t="shared" si="0"/>
-        <v>3.96e+19</v>
-      </c>
-      <c r="J23" s="9">
-        <v>9.9e+18</v>
+        <v>3.96e+25</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="K23" s="9">
         <f t="shared" si="1"/>
-        <v>3.96e+19</v>
+        <v>3.96e+26</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M23" s="9">
         <f t="shared" si="2"/>
@@ -2433,10 +2455,10 @@
         <v>80</v>
       </c>
       <c r="U23" s="15" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="V23" s="15" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="3:22">
@@ -2455,22 +2477,22 @@
       <c r="G24" s="8">
         <v>100</v>
       </c>
-      <c r="H24" s="9">
-        <v>9.9e+19</v>
+      <c r="H24" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="I24" s="9">
         <f t="shared" si="0"/>
-        <v>3.96e+20</v>
-      </c>
-      <c r="J24" s="9">
-        <v>9.9e+19</v>
+        <v>3.96e+27</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="K24" s="9">
         <f t="shared" si="1"/>
-        <v>3.96e+20</v>
+        <v>3.96e+28</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="M24" s="9">
         <f t="shared" si="2"/>
@@ -2498,14 +2520,14 @@
         <v>80</v>
       </c>
       <c r="U24" s="15" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="V24" s="15" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="10:11">
-      <c r="J25" s="10"/>
+      <c r="J25" s="9"/>
       <c r="K25" s="10"/>
     </row>
     <row r="26" customHeight="1" spans="10:11">
@@ -2531,7 +2553,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F3:M3 G4:M4 G5:R5 F4:F5 N3:R4 C3:E5 S3:T5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F3:M3 G4:M4 G5:R5 F4:F5 C3:E5 N3:R4 S3:T5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
